--- a/PizzasPapa.xlsx
+++ b/PizzasPapa.xlsx
@@ -585,6 +585,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="39.140625" customWidth="1"/>
     <col min="3" max="3" width="189.140625" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
   </cols>
